--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>933575.533739529</v>
+        <v>931094.6139140698</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.3618366251777</v>
+        <v>311.5034673860629</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545851</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104951</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830086</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913427</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4449361779447</v>
+        <v>90.12097307876738</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.012006082921</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>367.763404542569</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104948</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830086</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913427</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.7787200234116</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>86.26051497487639</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271165</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292099</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U16" t="n">
-        <v>35.80549404827258</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>267.1640487096485</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U17" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>231.4430210451647</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503345</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121761</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411899</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>77.43656365929304</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D20" t="n">
-        <v>243.5714575743118</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134332984</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U20" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503345</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411899</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432822</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948585</v>
       </c>
       <c r="V22" t="n">
-        <v>240.6420543130727</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D25" t="n">
-        <v>137.119884007456</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.273436320685</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403086</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862157</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257875</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>239.4866237999601</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538322</v>
+        <v>133.1067657762841</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953178</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>50.93075279010729</v>
       </c>
       <c r="E43" t="n">
-        <v>90.95618068285859</v>
+        <v>48.74924241846411</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>239.4866237999598</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3986,10 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115148</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>205.4124289181754</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.1068713883842</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1500.637597194506</v>
+        <v>1184.064799705182</v>
       </c>
       <c r="C11" t="n">
-        <v>1158.867147513818</v>
+        <v>1184.064799705182</v>
       </c>
       <c r="D11" t="n">
-        <v>827.7935161667913</v>
+        <v>852.9911683581552</v>
       </c>
       <c r="E11" t="n">
-        <v>469.1973308282707</v>
+        <v>852.9911683581552</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282707</v>
+        <v>469.1973308282712</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299084</v>
+        <v>81.31694793299113</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299084</v>
+        <v>81.31694793299113</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142731</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.396592058884</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W11" t="n">
-        <v>2469.820004048494</v>
+        <v>2207.935722479256</v>
       </c>
       <c r="X11" t="n">
-        <v>2123.546313047137</v>
+        <v>1861.6620314779</v>
       </c>
       <c r="Y11" t="n">
-        <v>1760.599048331049</v>
+        <v>1498.714766761811</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.951027543685</v>
+        <v>418.3126375609335</v>
       </c>
       <c r="C13" t="n">
-        <v>480.951027543685</v>
+        <v>276.5685218927501</v>
       </c>
       <c r="D13" t="n">
-        <v>425.9561425154581</v>
+        <v>185.537235954602</v>
       </c>
       <c r="E13" t="n">
-        <v>305.2351161927886</v>
+        <v>185.537235954602</v>
       </c>
       <c r="F13" t="n">
-        <v>185.5372359546019</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546019</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402565</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.94255636106</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229848</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058532</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075784</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991583</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.88455437695</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413538</v>
+        <v>1229.392133430787</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636301</v>
+        <v>967.1670306535499</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980074</v>
+        <v>766.3695470152561</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.407425114201</v>
+        <v>572.7690351314495</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1796.226782517379</v>
+        <v>1498.714766761814</v>
       </c>
       <c r="C14" t="n">
-        <v>1454.456332836691</v>
+        <v>1156.944317081126</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.382701489664</v>
+        <v>825.8706857340987</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>825.8706857340987</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>454.3924993274634</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845703</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.721402835313</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.447711833957</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1796.226782517379</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237414</v>
+        <v>418.3126375609347</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555583</v>
+        <v>276.5685218927516</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029461</v>
+        <v>153.6439497401394</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802768</v>
+        <v>153.6439497401394</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420903</v>
+        <v>153.6439497401394</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>153.6439497401394</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1976.008292145084</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1939.841126439758</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.348705493594</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716358</v>
+        <v>967.1670306535513</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078064</v>
+        <v>766.3695470152575</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194257</v>
+        <v>572.7690351314509</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446359</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.269774201191</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.380997682824</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>3015.380997682824</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344274</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.359829166343</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235555</v>
+        <v>569.1217789872278</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034456</v>
+        <v>474.827296267118</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625794</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243108</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1849.07579691749</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952113</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729436</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062877</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064787</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356235</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454033</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096704</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1817.728115595286</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1523.407298862671</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446361</v>
+        <v>629.8126900199877</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628256</v>
+        <v>293.4684854381771</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2445.183887219625</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2129.686255451611</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872278</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.827296267118</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.3523570625794</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604099</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062877</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064787</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>975.6272732356235</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454033</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096704</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>277.7692084607061</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>932.4925405960055</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1383.526753844414</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.837475575121</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329806</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058329</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,10 +6084,10 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923639</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
         <v>2571.774827516155</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138534</v>
+        <v>575.9874173775278</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937434</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634013</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259242</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720292</v>
+        <v>829.1450609357038</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362961</v>
+        <v>682.9941819999706</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6254,22 +6254,22 @@
         <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
@@ -6309,43 +6309,43 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
@@ -6403,22 +6403,22 @@
         <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,52 +6461,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>393.29945309917</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890163</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.684944709349</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768131</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257046</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415478</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302711</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6622,10 +6622,10 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,25 +6701,25 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.20875468258</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.181225561917</v>
+        <v>3336.058965299584</v>
       </c>
       <c r="P32" t="n">
-        <v>3477.955591919094</v>
+        <v>3730.833331656761</v>
       </c>
       <c r="Q32" t="n">
-        <v>3936.433794428082</v>
+        <v>3979.119693412444</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834457</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6783,22 +6783,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6856,28 +6856,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973137</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464984</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307344</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6962,7 +6962,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6977,10 +6977,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,7 +7002,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7029,19 +7029,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909351</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368717</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983795</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>329.97921818983</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657631</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1471.208777510711</v>
       </c>
       <c r="U37" t="n">
-        <v>1182.105910636352</v>
+        <v>1182.105910636355</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.092857004309</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W37" t="n">
-        <v>835.3471215411918</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170179</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473313</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307339</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495726</v>
@@ -7202,22 +7202,22 @@
         <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7296,7 +7296,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650711</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110077</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725155</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>273.9410545901224</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660556</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404821</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1323.410616184332</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1068.726127978445</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153275</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911538</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214672</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7509,31 +7509,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.9069705127581</v>
+        <v>402.2593958170917</v>
       </c>
       <c r="C43" t="n">
-        <v>670.6422221586947</v>
+        <v>331.9946474630283</v>
       </c>
       <c r="D43" t="n">
-        <v>619.1970173202025</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1182.105910636353</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.092857004309</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>835.3471215411919</v>
       </c>
       <c r="X43" t="n">
-        <v>946.005145338841</v>
+        <v>706.029005217018</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691543</v>
+        <v>485.2364260734879</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7679,7 +7679,7 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746126</v>
@@ -7691,7 +7691,7 @@
         <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218339</v>
@@ -7728,49 +7728,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386223</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845589</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722231</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
-        <v>329.97921818983</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919196</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.092857004309</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411918</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170179</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.922164368862</v>
+        <v>583.9078606473313</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430636</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729015</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389613</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333077</v>
+        <v>181.0856325333059</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830251</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586593</v>
+        <v>190.8908035586578</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626613</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867228</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253601</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677734</v>
+        <v>92.30246558677591</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359743</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779833</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615462</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564662</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140782</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662708</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>15.66901280727097</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>127.4994347185295</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>62.52018570663878</v>
+        <v>19.40311602546575</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R44" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.45185845117643</v>
+        <v>44.31022769029131</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>67.25039025314121</v>
+        <v>31.57435335231864</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271178</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>12.19249461201607</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>117.5390720455156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.57435335231806</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271175</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>223.4861975702138</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>41.67450974811302</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>43.90266446652926</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.2163008406522</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134014</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.044853423896711e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1031848.361236064</v>
+        <v>1031848.361236063</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851169.8803409678</v>
+        <v>851169.8803409674</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>851169.8803409678</v>
+        <v>851169.8803409677</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>925909.3237337637</v>
+        <v>925909.3237337638</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>969921.5287742341</v>
+        <v>969921.5287742342</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>985225.9932965755</v>
+        <v>985225.9932965756</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956396.9146441724</v>
+        <v>956396.9146441725</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="D2" t="n">
         <v>491579.201883568</v>
       </c>
       <c r="E2" t="n">
-        <v>437724.0005429849</v>
+        <v>437724.0005429847</v>
       </c>
       <c r="F2" t="n">
-        <v>437724.0005429849</v>
+        <v>437724.0005429846</v>
       </c>
       <c r="G2" t="n">
         <v>476718.4927479219</v>
       </c>
       <c r="H2" t="n">
-        <v>476718.4927479219</v>
+        <v>476718.4927479218</v>
       </c>
       <c r="I2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="K2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185695</v>
       </c>
       <c r="M2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="N2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="O2" t="n">
         <v>492625.0619185706</v>
       </c>
-      <c r="N2" t="n">
-        <v>492625.0619185706</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185703</v>
-      </c>
       <c r="P2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185702</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552161</v>
+        <v>59764.55367552381</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487425</v>
+        <v>37580.10929487422</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983343</v>
+        <v>22821.46782983345</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179682</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487422</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954655</v>
+        <v>430603.4278954647</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364975</v>
+        <v>40024.16194364965</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.16194364965</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509201</v>
+        <v>77052.32230509204</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509199</v>
+        <v>77052.32230509204</v>
       </c>
       <c r="I4" t="n">
         <v>90617.51027754389</v>
       </c>
       <c r="J4" t="n">
+        <v>88960.95519699586</v>
+      </c>
+      <c r="K4" t="n">
         <v>88960.95519699584</v>
-      </c>
-      <c r="K4" t="n">
-        <v>88960.95519699583</v>
       </c>
       <c r="L4" t="n">
         <v>88960.95519699587</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="N4" t="n">
+        <v>92183.89891818177</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818182</v>
       </c>
-      <c r="O4" t="n">
-        <v>92183.89891818179</v>
-      </c>
       <c r="P4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818185</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26500,13 +26500,13 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5538.212681257668</v>
+        <v>5533.799103389672</v>
       </c>
       <c r="C6" t="n">
-        <v>5538.212681257726</v>
+        <v>5533.799103389789</v>
       </c>
       <c r="D6" t="n">
-        <v>-33937.68511928551</v>
+        <v>-33942.04286943281</v>
       </c>
       <c r="E6" t="n">
-        <v>-768108.6239291248</v>
+        <v>-768337.3783515203</v>
       </c>
       <c r="F6" t="n">
-        <v>321130.348234509</v>
+        <v>320901.5938121099</v>
       </c>
       <c r="G6" t="n">
-        <v>281567.4180227407</v>
+        <v>281501.1406511964</v>
       </c>
       <c r="H6" t="n">
-        <v>319147.527317615</v>
+        <v>319081.2499460705</v>
       </c>
       <c r="I6" t="n">
         <v>293449.5555093506</v>
       </c>
       <c r="J6" t="n">
-        <v>288876.7320249709</v>
+        <v>288876.7320249708</v>
       </c>
       <c r="K6" t="n">
-        <v>314286.1650467679</v>
+        <v>314286.1650467676</v>
       </c>
       <c r="L6" t="n">
-        <v>276706.0557518937</v>
+        <v>276706.0557518933</v>
       </c>
       <c r="M6" t="n">
-        <v>115754.4657014145</v>
+        <v>115754.4657014143</v>
       </c>
       <c r="N6" t="n">
+        <v>317922.5656941388</v>
+      </c>
+      <c r="O6" t="n">
         <v>317922.5656941389</v>
       </c>
-      <c r="O6" t="n">
-        <v>317922.5656941386</v>
-      </c>
       <c r="P6" t="n">
-        <v>317922.5656941387</v>
+        <v>317922.5656941385</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810506</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790504</v>
+        <v>69.78465283790761</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859277</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859277</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951251</v>
+        <v>50.70958360951229</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790504</v>
+        <v>69.78465283790761</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755394</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758428</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859277</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672117</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987536</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519102</v>
+        <v>84.46220888519069</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990621</v>
+        <v>7.649035050990081</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317072</v>
+        <v>75.62456067317034</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712634</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712634</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075429</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075437</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075528</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075639</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075687</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.72521440565444</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.72521440565282</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810509</v>
+        <v>46.72521440565316</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371046</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30624,16 +30624,16 @@
         <v>97.68472022810506</v>
       </c>
       <c r="E43" t="n">
-        <v>55.47778196371058</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810506</v>
+        <v>46.72521440565305</v>
       </c>
       <c r="V43" t="n">
         <v>97.68472022810506</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X43" t="n">
         <v>97.68472022810506</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="45">
@@ -30855,22 +30855,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>46.72521440565262</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.47778196371056</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413266</v>
+        <v>0.2805413179413369</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366612</v>
+        <v>2.873093772366718</v>
       </c>
       <c r="I8" t="n">
-        <v>10.815569159933</v>
+        <v>10.8155691599334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362269</v>
+        <v>23.81059368362357</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207905</v>
+        <v>35.68590767208037</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102593</v>
+        <v>44.27152403102757</v>
       </c>
       <c r="M8" t="n">
-        <v>49.260600693965</v>
+        <v>49.26060069396681</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135658</v>
+        <v>50.05768871356764</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328673</v>
+        <v>47.26805598328847</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661022</v>
+        <v>40.34219219661171</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783645</v>
+        <v>30.29530624783757</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313187</v>
+        <v>17.62255356313252</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587986</v>
+        <v>6.392835282588222</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288158</v>
+        <v>1.228069619288203</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530612</v>
+        <v>0.02244330543530695</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796448</v>
+        <v>0.1501028381796503</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840254</v>
+        <v>1.449677410840307</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693912</v>
+        <v>5.168014384694103</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906899</v>
+        <v>14.18142647906951</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710519</v>
+        <v>24.23831663710608</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264613</v>
+        <v>32.59140791264733</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665824</v>
+        <v>38.03263579665965</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655595</v>
+        <v>39.0392464965574</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847014</v>
+        <v>35.71328360847146</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449726</v>
+        <v>28.66305863449832</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447536</v>
+        <v>19.16049562447607</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767776</v>
+        <v>9.319542882768118</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608752</v>
+        <v>2.788094384608854</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890067</v>
+        <v>0.605019773189029</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345058</v>
+        <v>0.009875186722345421</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486812</v>
+        <v>0.1258411772486858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811003</v>
+        <v>1.118842466811044</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078524</v>
+        <v>3.784387403078663</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481761</v>
+        <v>8.896971231482089</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489223</v>
+        <v>14.62045677489277</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477212</v>
+        <v>18.70915102477281</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908191</v>
+        <v>19.72617653908263</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115502</v>
+        <v>19.25713215115573</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874997</v>
+        <v>17.78707839875062</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287686</v>
+        <v>15.21991838287742</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852366</v>
+        <v>10.53748257852405</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338161</v>
+        <v>5.658276933381819</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233835</v>
+        <v>2.193068516233915</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625469</v>
+        <v>0.5376850300625666</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564437</v>
+        <v>0.006864064213564691</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019254</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573244</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806101</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546663</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322367</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019259</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546664</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>206.4560137759835</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36373,10 +36373,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>526.2614209379011</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.305592123718</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>122.1333842488635</v>
+        <v>79.01631456769047</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412319</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
